--- a/3. Stores/coef_modeloIngreso.xlsx
+++ b/3. Stores/coef_modeloIngreso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9cb66faeec9e549d/15. Maestria Economia/9. Big Data/3. GitHub/Problem_Set_2-G16/3. Stores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_0C6DFDCE8F79A8D366075C52F347D2B2057F916E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17F0B0F2-4DF3-4EDE-A5E0-C1673CAAE267}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_0C6DFDCE8F79A8D366075C52F347D2B2057F916E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6C8DB12-7334-42E4-8946-E2FDB5C71D74}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,7 +216,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -224,15 +224,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,586 +593,588 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection sqref="A1:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>1486457.1735128241</v>
       </c>
-      <c r="C2">
-        <f>ABS(B2)</f>
+      <c r="C2" s="3">
+        <f t="shared" ref="C2:C48" si="0">ABS(B2)</f>
         <v>1486457.1735128241</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>555192.91016576893</v>
       </c>
-      <c r="C3">
-        <f>ABS(B3)</f>
+      <c r="C3" s="3">
+        <f t="shared" si="0"/>
         <v>555192.91016576893</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>550847.86541919003</v>
       </c>
-      <c r="C4">
-        <f>ABS(B4)</f>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
         <v>550847.86541919003</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>-347055.4212364828</v>
       </c>
-      <c r="C5">
-        <f>ABS(B5)</f>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
         <v>347055.4212364828</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>313627.61423836998</v>
       </c>
-      <c r="C6">
-        <f>ABS(B6)</f>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
         <v>313627.61423836998</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>-290718.8684869734</v>
       </c>
-      <c r="C7">
-        <f>ABS(B7)</f>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
         <v>290718.8684869734</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>280700.90168153762</v>
       </c>
-      <c r="C8">
-        <f>ABS(B8)</f>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
         <v>280700.90168153762</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>277899.06595515501</v>
       </c>
-      <c r="C9">
-        <f>ABS(B9)</f>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
         <v>277899.06595515501</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>258388.7372719121</v>
       </c>
-      <c r="C10">
-        <f>ABS(B10)</f>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
         <v>258388.7372719121</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>254559.8658382271</v>
       </c>
-      <c r="C11">
-        <f>ABS(B11)</f>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
         <v>254559.8658382271</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>-188304.29950108181</v>
       </c>
-      <c r="C12">
-        <f>ABS(B12)</f>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
         <v>188304.29950108181</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>-187603.70326331939</v>
       </c>
-      <c r="C13">
-        <f>ABS(B13)</f>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
         <v>187603.70326331939</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>176433.74232327199</v>
       </c>
-      <c r="C14">
-        <f>ABS(B14)</f>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
         <v>176433.74232327199</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>-173987.80956620819</v>
       </c>
-      <c r="C15">
-        <f>ABS(B15)</f>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
         <v>173987.80956620819</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>-140250.06937554819</v>
       </c>
-      <c r="C16">
-        <f>ABS(B16)</f>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
         <v>140250.06937554819</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>135803.73324947059</v>
       </c>
-      <c r="C17">
-        <f>ABS(B17)</f>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
         <v>135803.73324947059</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>-130183.55592401051</v>
       </c>
-      <c r="C18">
-        <f>ABS(B18)</f>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
         <v>130183.55592401051</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>-123773.973286947</v>
       </c>
-      <c r="C19">
-        <f>ABS(B19)</f>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
         <v>123773.973286947</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>-118956.8553807166</v>
       </c>
-      <c r="C20">
-        <f>ABS(B20)</f>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
         <v>118956.8553807166</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>-107513.9449276878</v>
       </c>
-      <c r="C21">
-        <f>ABS(B21)</f>
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
         <v>107513.9449276878</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>98650.773667960893</v>
       </c>
-      <c r="C22">
-        <f>ABS(B22)</f>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
         <v>98650.773667960893</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>-93047.769057750396</v>
       </c>
-      <c r="C23">
-        <f>ABS(B23)</f>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
         <v>93047.769057750396</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>84172.926606138513</v>
       </c>
-      <c r="C24">
-        <f>ABS(B24)</f>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
         <v>84172.926606138513</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>81321.524368619575</v>
       </c>
-      <c r="C25">
-        <f>ABS(B25)</f>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
         <v>81321.524368619575</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>77660.788425405888</v>
       </c>
-      <c r="C26">
-        <f>ABS(B26)</f>
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
         <v>77660.788425405888</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>-77152.150176605777</v>
       </c>
-      <c r="C27">
-        <f>ABS(B27)</f>
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
         <v>77152.150176605777</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>74980.964588574498</v>
       </c>
-      <c r="C28">
-        <f>ABS(B28)</f>
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
         <v>74980.964588574498</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>-59135.266614257227</v>
       </c>
-      <c r="C29">
-        <f>ABS(B29)</f>
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
         <v>59135.266614257227</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>-57181.045135378117</v>
       </c>
-      <c r="C30">
-        <f>ABS(B30)</f>
+      <c r="C30" s="3">
+        <f t="shared" si="0"/>
         <v>57181.045135378117</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>53561.217126479569</v>
       </c>
-      <c r="C31">
-        <f>ABS(B31)</f>
+      <c r="C31" s="3">
+        <f t="shared" si="0"/>
         <v>53561.217126479569</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>50357.516175001067</v>
       </c>
-      <c r="C32">
-        <f>ABS(B32)</f>
+      <c r="C32" s="3">
+        <f t="shared" si="0"/>
         <v>50357.516175001067</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>-46841.824026370363</v>
       </c>
-      <c r="C33">
-        <f>ABS(B33)</f>
+      <c r="C33" s="3">
+        <f t="shared" si="0"/>
         <v>46841.824026370363</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3">
         <v>-41394.822077894263</v>
       </c>
-      <c r="C34">
-        <f>ABS(B34)</f>
+      <c r="C34" s="3">
+        <f t="shared" si="0"/>
         <v>41394.822077894263</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>40436.595667505033</v>
       </c>
-      <c r="C35">
-        <f>ABS(B35)</f>
+      <c r="C35" s="3">
+        <f t="shared" si="0"/>
         <v>40436.595667505033</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="3">
         <v>33927.125561146036</v>
       </c>
-      <c r="C36">
-        <f>ABS(B36)</f>
+      <c r="C36" s="3">
+        <f t="shared" si="0"/>
         <v>33927.125561146036</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>28767.669925828919</v>
       </c>
-      <c r="C37">
-        <f>ABS(B37)</f>
+      <c r="C37" s="3">
+        <f t="shared" si="0"/>
         <v>28767.669925828919</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="3">
         <v>28690.153204653288</v>
       </c>
-      <c r="C38">
-        <f>ABS(B38)</f>
+      <c r="C38" s="3">
+        <f t="shared" si="0"/>
         <v>28690.153204653288</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3">
         <v>27882.469866095809</v>
       </c>
-      <c r="C39">
-        <f>ABS(B39)</f>
+      <c r="C39" s="3">
+        <f t="shared" si="0"/>
         <v>27882.469866095809</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="3">
         <v>-27296.09206085257</v>
       </c>
-      <c r="C40">
-        <f>ABS(B40)</f>
+      <c r="C40" s="3">
+        <f t="shared" si="0"/>
         <v>27296.09206085257</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3">
         <v>-18765.68240065753</v>
       </c>
-      <c r="C41">
-        <f>ABS(B41)</f>
+      <c r="C41" s="3">
+        <f t="shared" si="0"/>
         <v>18765.68240065753</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="3">
         <v>-15934.084866769619</v>
       </c>
-      <c r="C42">
-        <f>ABS(B42)</f>
+      <c r="C42" s="3">
+        <f t="shared" si="0"/>
         <v>15934.084866769619</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <v>-14112.584173278719</v>
       </c>
-      <c r="C43">
-        <f>ABS(B43)</f>
+      <c r="C43" s="3">
+        <f t="shared" si="0"/>
         <v>14112.584173278719</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="3">
         <v>-10171.54719438507</v>
       </c>
-      <c r="C44">
-        <f>ABS(B44)</f>
+      <c r="C44" s="3">
+        <f t="shared" si="0"/>
         <v>10171.54719438507</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3">
         <v>8047.6975367076466</v>
       </c>
-      <c r="C45">
-        <f>ABS(B45)</f>
+      <c r="C45" s="3">
+        <f t="shared" si="0"/>
         <v>8047.6975367076466</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="3">
         <v>7822.0667886187148</v>
       </c>
-      <c r="C46">
-        <f>ABS(B46)</f>
+      <c r="C46" s="3">
+        <f t="shared" si="0"/>
         <v>7822.0667886187148</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="3">
         <v>5023.9604024748714</v>
       </c>
-      <c r="C47">
-        <f>ABS(B47)</f>
+      <c r="C47" s="3">
+        <f t="shared" si="0"/>
         <v>5023.9604024748714</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="3">
         <v>0</v>
       </c>
-      <c r="C48">
-        <f>ABS(B48)</f>
+      <c r="C48" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
